--- a/writing/Table7_MixedModControlValues.xlsx
+++ b/writing/Table7_MixedModControlValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FC79C-B7DB-4F4B-8AE4-4C09860DFA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AAC20-4707-44C5-A725-B3309FBB060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{0C7DA422-6658-4C9F-A8ED-036B2007C88D}"/>
+    <workbookView xWindow="4320" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{0C7DA422-6658-4C9F-A8ED-036B2007C88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,47 +217,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +576,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,81 +595,81 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.85299999999999998</v>
+      <c r="E4" s="11">
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="12">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
-        <v>0.125</v>
+      <c r="E5" s="12">
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="13">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15">
-        <v>0.57799999999999996</v>
+      <c r="E6" s="13">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
